--- a/biology/Médecine/Hôpital_Général_Saint-Vincent-de-Paul/Hôpital_Général_Saint-Vincent-de-Paul.xlsx
+++ b/biology/Médecine/Hôpital_Général_Saint-Vincent-de-Paul/Hôpital_Général_Saint-Vincent-de-Paul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_G%C3%A9n%C3%A9ral_Saint-Vincent-de-Paul</t>
+          <t>Hôpital_Général_Saint-Vincent-de-Paul</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Hôpital Général Saint-Vincent-de-Paul est un centre hospitalier fondé en 1906 dans la ville de Sherbrooke au Québec.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_G%C3%A9n%C3%A9ral_Saint-Vincent-de-Paul</t>
+          <t>Hôpital_Général_Saint-Vincent-de-Paul</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sœurs de la charité de Saint-Hyacinthe, qui administraient déjà l'Hôpital d'Youville de Sherbrooke, prirent la décision de séparer l’œuvre de l’hôpital de celle de l’hospice. Convaincu de la nécessité de cette « œuvre importante entreprise pour le bien des âmes », Mgr Paul LaRocque apporta son support aux sœurs.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_G%C3%A9n%C3%A9ral_Saint-Vincent-de-Paul</t>
+          <t>Hôpital_Général_Saint-Vincent-de-Paul</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Soins hospitaliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La communauté souhaitait que le futur Hôpital Général Saint-Vincent-de-Paul soit situé plus près du centre de la ville. En 1896, Mgr Paul Larocque réclame la fondation d’une maison mère et d’un noviciat à Sherbrooke  pour qu’elles développent les soins aux malades. Les soins en milieu hospitalier ainsi que les découvertes médicales conduisent les religieuses à entreprendre la construction de ce nouvel hôpital dans l'est de la ville. Le nouvel hôpital est béni en 1906 par Mgr Larocque et porte le nom d'Hôpital Général Saint-Vincent-de-Paul. En plus de services en médecine, l'institution héberge une école d'infirmières en 1913[1]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La communauté souhaitait que le futur Hôpital Général Saint-Vincent-de-Paul soit situé plus près du centre de la ville. En 1896, Mgr Paul Larocque réclame la fondation d’une maison mère et d’un noviciat à Sherbrooke  pour qu’elles développent les soins aux malades. Les soins en milieu hospitalier ainsi que les découvertes médicales conduisent les religieuses à entreprendre la construction de ce nouvel hôpital dans l'est de la ville. Le nouvel hôpital est béni en 1906 par Mgr Larocque et porte le nom d'Hôpital Général Saint-Vincent-de-Paul. En plus de services en médecine, l'institution héberge une école d'infirmières en 1913. 
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_G%C3%A9n%C3%A9ral_Saint-Vincent-de-Paul</t>
+          <t>Hôpital_Général_Saint-Vincent-de-Paul</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>De nos jours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hopital est devenu le centre d'hébergement et de soins de longue durée (CHSLD) Saint-Vincent.
 </t>
